--- a/TrainingTemplate.xlsx
+++ b/TrainingTemplate.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajeshkumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A4CAA3-EFCA-4BC1-92FF-2C34E241002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA285E04-6E0C-4AF5-A1D6-408CC91A3B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{43F50282-C2C7-4F8D-A2EA-B75AA83106D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{43F50282-C2C7-4F8D-A2EA-B75AA83106D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Prerequisite" sheetId="2" r:id="rId1"/>
+    <sheet name="Training Content" sheetId="1" r:id="rId2"/>
+    <sheet name="Training Plan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
-  <si>
-    <t>Week</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>Topic</t>
   </si>
@@ -92,36 +90,6 @@
   </si>
   <si>
     <t>- Hands-on: Advanced Reporting Techniques</t>
-  </si>
-  <si>
-    <t>Security and Role-Based Access Control</t>
-  </si>
-  <si>
-    <t>Security Basics</t>
-  </si>
-  <si>
-    <t>- Lecture: Understanding Security in Dynamics 365</t>
-  </si>
-  <si>
-    <t>Security Roles</t>
-  </si>
-  <si>
-    <t>- Hands-on: Configuring Security Roles</t>
-  </si>
-  <si>
-    <t>Power Platform Integration</t>
-  </si>
-  <si>
-    <t>Power BI</t>
-  </si>
-  <si>
-    <t>- Presentation: Integrating Power BI with Dynamics 365</t>
-  </si>
-  <si>
-    <t>Power Apps</t>
-  </si>
-  <si>
-    <t>- Workshop: Creating Custom Apps with Power Apps</t>
   </si>
   <si>
     <t>Presentation on Dynamics 365 basics</t>
@@ -373,12 +341,287 @@
   <si>
     <t>Rest API Integration</t>
   </si>
+  <si>
+    <t>Portals</t>
+  </si>
+  <si>
+    <t>Portal Basics</t>
+  </si>
+  <si>
+    <t>Portal Advance</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>Basic HTML Knowledge</t>
+  </si>
+  <si>
+    <t>Basic Javascript Knowledge</t>
+  </si>
+  <si>
+    <t>Basic Understanding of Server and Client Side Programming</t>
+  </si>
+  <si>
+    <t>Knowledge in Object Oriented Programming ( C# or Java)  C# would be added advantage</t>
+  </si>
+  <si>
+    <t>Basic SQL Knowledge</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Architecture of Dynamics 365</t>
+  </si>
+  <si>
+    <t>Subtopics</t>
+  </si>
+  <si>
+    <t>Overview, Purpose, Benefits</t>
+  </si>
+  <si>
+    <t>Server Architecture, Database Structure</t>
+  </si>
+  <si>
+    <t>Cloud Deployment, On-Premises Deployment</t>
+  </si>
+  <si>
+    <t>Resources/Activities:</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Licensing in Dynamics 365</t>
+  </si>
+  <si>
+    <t>Entities and Fields</t>
+  </si>
+  <si>
+    <t>Forms and Views</t>
+  </si>
+  <si>
+    <t>Licensing Models, User Types</t>
+  </si>
+  <si>
+    <t>Creating Custom Entities, Adding Fields</t>
+  </si>
+  <si>
+    <t>Creating Custom Forms, Configuring Views</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Business Rules and Processes</t>
+  </si>
+  <si>
+    <t>Workflows and Automation</t>
+  </si>
+  <si>
+    <t>Introduction to Business Process Flows</t>
+  </si>
+  <si>
+    <t>Creating Business Rules, Automating Processes</t>
+  </si>
+  <si>
+    <t>Workflow Design, Automation Scenarios</t>
+  </si>
+  <si>
+    <t>Purpose, Benefits, Components</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Advanced Business Process Flows</t>
+  </si>
+  <si>
+    <t>Data Integration Strategies</t>
+  </si>
+  <si>
+    <t>Process Design, Mapping to Existing Processes</t>
+  </si>
+  <si>
+    <t>Conditional Flows, Integration with Other Modules</t>
+  </si>
+  <si>
+    <t>Import/Export, Data Migration Tools</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Power Automate and Process Automation</t>
+  </si>
+  <si>
+    <t>Creating Basic Reports</t>
+  </si>
+  <si>
+    <t>APIs, Web Services, Integration Platforms</t>
+  </si>
+  <si>
+    <t>Creating Flows, Automating Workflows</t>
+  </si>
+  <si>
+    <t>Report Types, Customization</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Designing Effective Dashboards</t>
+  </si>
+  <si>
+    <t>Understanding Security in Dynamics 365</t>
+  </si>
+  <si>
+    <t>Custom Queries, Data Visualizations</t>
+  </si>
+  <si>
+    <t>Dashboard Components, Layouts</t>
+  </si>
+  <si>
+    <t>Security Concepts, Roles</t>
+  </si>
+  <si>
+    <t>Field-level Security and Data Protection</t>
+  </si>
+  <si>
+    <t>Access Control for External Users</t>
+  </si>
+  <si>
+    <t>Integrating with Power BI</t>
+  </si>
+  <si>
+    <t>Implementing Field-level Security, Data Encryption</t>
+  </si>
+  <si>
+    <t>Partner and Customer Access, External Sharing</t>
+  </si>
+  <si>
+    <t>Embedding Reports, Dataflows</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Power Apps and Custom App Development</t>
+  </si>
+  <si>
+    <t>Automating Processes with Power Automate</t>
+  </si>
+  <si>
+    <t>Practice Questions and Review</t>
+  </si>
+  <si>
+    <t>Creating Custom Apps, App Templates</t>
+  </si>
+  <si>
+    <t>Creating Flows, Integration Scenarios</t>
+  </si>
+  <si>
+    <t>Mock Exam, Review of Key Concepts</t>
+  </si>
+  <si>
+    <t>Portal Types
+Authentication and Access Control:</t>
+  </si>
+  <si>
+    <t>Web Page Customizations:
+Entity Forms and Lists:
+Knowledge Articles
+Multi-Language Support
+Dynamics API Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Roles
+Privileges and Access Levels:
+</t>
+  </si>
+  <si>
+    <t>Hierarchy Security Model:
+Team Ownership and Access
+Sharing Records:
+Field-Level Security:
+Record Ownership:
+Access Teams:
+Business Units:
+Access Teams vs. Owner Teams</t>
+  </si>
+  <si>
+    <t>Security  Roles Basics</t>
+  </si>
+  <si>
+    <t>Security Roles Advance</t>
+  </si>
+  <si>
+    <t>Security Access Control</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Service </t>
+  </si>
+  <si>
+    <t>Canvas App</t>
+  </si>
+  <si>
+    <t>Introduction to Canvas Apps</t>
+  </si>
+  <si>
+    <t>Basics of Canvas App</t>
+  </si>
+  <si>
+    <t>Advance Canvas App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a Canvas App:
+Data Sources and Connectors:
+User Interface Design:
+Using Formulas and Functions:
+Working with Data:
+</t>
+  </si>
+  <si>
+    <t>User Authentication and Security:
+Integration with Dynamics 365 Entities:
+Using Controls and Components:
+Implementing User Interactions:
+Custom Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+WO Life Cycle
+Inspection in Field Service
+ScheduleBoard
+Field Service mobile app
+Assest Management and Customer Assets </t>
+  </si>
+  <si>
+    <t>Introduction of Field Service
+Use Case of Field Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Service concepts </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,16 +629,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -446,10 +732,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -459,11 +769,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,31 +782,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,430 +1139,556 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7859F6-1520-4ED8-BC30-9A774496ADAC}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC4D4C0-7C21-49A8-8F52-D0E8731B7180}">
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7859F6-1520-4ED8-BC30-9A774496ADAC}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="3" t="s">
+    <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4" t="s">
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="B34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
+      <c r="D36" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="2"/>
+      <c r="A38" s="7">
+        <v>12</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="24">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
@@ -1254,16 +1701,669 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC4D4C0-7C21-49A8-8F52-D0E8731B7180}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFFD23D-EE2E-4947-AA0C-B409D51EA129}">
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B25:B26"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="19"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="19"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="19"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="19"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>